--- a/Missing_Value_Report.xlsx
+++ b/Missing_Value_Report.xlsx
@@ -2270,7 +2270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2288,6 +2288,186 @@
         <is>
           <t>Missing_Percentage</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hispanic - Asthma-DataValue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hispanic - Asthma-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Hispanic - Asthma-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Hispanic - Diabetes-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Hispanic - Diabetes-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Black - Arthritis-DataValue</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Black - Arthritis-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hispanic - Diabetes-DataValue</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Black - Arthritis-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Multiracial - Obesity-DataValue</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Multiracial - Obesity-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Black - Obesity-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Black - Obesity-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Black - Obesity-DataValue</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Multiracial - Obesity-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Multiracial - Arthritis-DataValue</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Multiracial - Arthritis-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Multiracial - Arthritis-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2301,7 +2481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2319,6 +2499,426 @@
         <is>
           <t>Missing_Percentage</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - Obesity-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - Obesity-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - Obesity-DataValue</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Black - COPD-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Black - COPD-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Multiracial - Asthma-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Multiracial - Asthma-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Multiracial - Asthma-DataValue</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Black - COPD-DataValue</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Overall - Transportation Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>White - Transportation Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>White - Bill Payment Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Males - Transportation Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>White - Bill Payment Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>White - Transportation Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>White - Bill Payment Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Males - Bill Payment Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Overall - Bill Payment Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Females - Bill Payment Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Males - Bill Payment Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Males - Transportation Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Males - Bill Payment Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Males - Transportation Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Females - Bill Payment Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Females - Transportation Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Overall - Transportation Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>White - Transportation Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Females - Transportation Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Females - Bill Payment Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Females - Transportation Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Overall - Bill Payment Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Overall - Transportation Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Overall - Bill Payment Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Black - Asthma-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Black - Asthma-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Black - Asthma-DataValue</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - Arthritis-DataValue</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - Arthritis-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - Arthritis-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Black - Diabetes-DataValue</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Black - Diabetes-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Black - Diabetes-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2332,7 +2932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2350,6 +2950,856 @@
         <is>
           <t>Missing_Percentage</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>moe - Individuals With Income</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Transportation Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Transportation Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Transportation Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Asthma-DataValue</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - COPD-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Bill Payment Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Asthma-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - COPD-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Bill Payment Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Asthma-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - COPD-DataValue</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Bill Payment Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Asian - COPD-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Obesity-DataValue</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Diabetes-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Asian - COPD-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Obesity-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Diabetes-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Obesity-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Diabetes-DataValue</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Arthritis-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Asian - Bill Payment Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Asian - Transportation Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Asian - Bill Payment Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Arthritis-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Asian - Bill Payment Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Asian - Transportation Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Arthritis-DataValue</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Asian - Transportation Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Asian - Asthma-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Asian - Asthma-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Asian - Asthma-DataValue</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - Bill Payment Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - Bill Payment Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - Bill Payment Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - COPD-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - COPD-DataValue</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - Transportation Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - COPD-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - Transportation Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - Transportation Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Asian - COPD-DataValue</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Asian - Diabetes-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Asian - Diabetes-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Asian - Diabetes-DataValue</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - Asthma-DataValue</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - Asthma-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - Asthma-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Multiracial - Transportation Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Multiracial - Transportation Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Multiracial - Transportation Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Asian - Arthritis-DataValue</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Asian - Arthritis-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Asian - Arthritis-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Multiracial - Bill Payment Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Multiracial - Bill Payment Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Multiracial - Bill Payment Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Asian - Obesity-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>56.00000000000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - Diabetes-DataValue</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>56.00000000000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Asian - Obesity-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>56.00000000000001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - Diabetes-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>56.00000000000001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native - Diabetes-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>56.00000000000001</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Asian - Obesity-DataValue</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>56.00000000000001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Hispanic - Transportation Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Black - Transportation Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Hispanic - Transportation Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Hispanic - Transportation Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Black - Transportation Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Multiracial - Diabetes-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Black - Transportation Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Multiracial - Diabetes-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Multiracial - Diabetes-DataValue</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Black - Bill Payment Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Black - Bill Payment Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Black - Bill Payment Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Hispanic - COPD-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Multiracial - COPD-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Hispanic - COPD-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Multiracial - COPD-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Multiracial - COPD-DataValue</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Hispanic - COPD-DataValue</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Hispanic - Bill Payment Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Hispanic - Bill Payment Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Hispanic - Bill Payment Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2363,7 +3813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2383,6 +3833,296 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>moe - Individuals With Income</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Transportation Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Transportation Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Transportation Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Bill Payment Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Bill Payment Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - COPD-DataValue</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Asthma-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Bill Payment Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - COPD-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - COPD-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Asthma-DataValue</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Asthma-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Asian - COPD-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Obesity-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Diabetes-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Obesity-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Diabetes-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Obesity-DataValue</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Diabetes-DataValue</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Asian - COPD-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Asian - Transportation Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Asian - Transportation Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Asian - Bill Payment Instability-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Arthritis-DataValue</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Asian - Bill Payment Instability-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Asian - Bill Payment Instability-DataValue</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Arthritis-LowConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hawaiian or Pacific Islander - Arthritis-HighConfidenceLimit</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
